--- a/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
@@ -1194,10 +1194,18 @@
       <c r="H20" t="n">
         <v>4.07576930111403</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.2690455451269347</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1512338705557182</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2873011317474146</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.093466386518675</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>13.46043696112904</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.4344319951986923</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2341496727038916</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.114760828551843</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.729621715297354</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
@@ -510,19 +510,19 @@
         <v>0.0821917808219178</v>
       </c>
       <c r="D2" t="n">
-        <v>117593.0151773667</v>
+        <v>117592.8751483996</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03586898970872386</v>
+        <v>-0.03587617850236063</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1676750632297407</v>
+        <v>0.1677052604798103</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.455547778312234</v>
+        <v>-1.456981444281443</v>
       </c>
       <c r="H2" t="n">
-        <v>13.46043696112904</v>
+        <v>13.47495016257348</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4344319951986923</v>
@@ -586,19 +586,19 @@
         <v>0.2547945205479452</v>
       </c>
       <c r="D4" t="n">
-        <v>119218.7861023897</v>
+        <v>119217.0483713247</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03672621704045163</v>
+        <v>-0.03680249953377605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2455892694522208</v>
+        <v>0.2459486504646433</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.590661034917381</v>
+        <v>-1.600803348376281</v>
       </c>
       <c r="H4" t="n">
-        <v>14.09127196325406</v>
+        <v>14.18296960958322</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.4082191780821918</v>
       </c>
       <c r="D6" t="n">
-        <v>120512.1239814362</v>
+        <v>120512.9628395726</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04449904237763451</v>
+        <v>-0.04447367095732655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2618306477662898</v>
+        <v>0.2617562671241508</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.146068098430402</v>
+        <v>-1.145252808459844</v>
       </c>
       <c r="H6" t="n">
-        <v>9.711326442807676</v>
+        <v>9.71280430611777</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8301369863013699</v>
       </c>
       <c r="D8" t="n">
-        <v>122313.5669429736</v>
+        <v>122164.7007662122</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05308648441355654</v>
+        <v>-0.05677251663461622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2144510033129059</v>
+        <v>0.2245554879481218</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7393009940210982</v>
+        <v>-0.9425775687075879</v>
       </c>
       <c r="H8" t="n">
-        <v>6.00499522113568</v>
+        <v>7.102346691011166</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.9068493150684932</v>
       </c>
       <c r="D9" t="n">
-        <v>124561.8954741632</v>
+        <v>123733.4508539603</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08467030874964325</v>
+        <v>-0.1118279067509251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3858458154327267</v>
+        <v>0.4943128361249983</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.084975148225614</v>
+        <v>-2.68666777456219</v>
       </c>
       <c r="H9" t="n">
-        <v>11.36369555364453</v>
+        <v>15.14159420746112</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.156164383561644</v>
       </c>
       <c r="D10" t="n">
-        <v>125156.3257258257</v>
+        <v>125152.0335512803</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1211713154712275</v>
+        <v>-0.1225329198767493</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4334945984795029</v>
+        <v>0.4432046915675618</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.814069771391023</v>
+        <v>-1.929694107042016</v>
       </c>
       <c r="H10" t="n">
-        <v>8.869900729366689</v>
+        <v>9.832829039523501</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.402739726027397</v>
       </c>
       <c r="D11" t="n">
-        <v>127250.6652012376</v>
+        <v>127217.7681993424</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1844496498673556</v>
+        <v>-0.200059168140949</v>
       </c>
       <c r="F11" t="n">
-        <v>0.666977666890947</v>
+        <v>0.7849397096575603</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.114020295608435</v>
+        <v>-2.642683839696853</v>
       </c>
       <c r="H11" t="n">
-        <v>8.668003306623774</v>
+        <v>12.98399582730444</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D13" t="n">
-        <v>117601.907739398</v>
+        <v>117650.839870485</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03898963657888103</v>
+        <v>-0.03409780987832819</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1658110440338515</v>
+        <v>0.1339026235787146</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.018309927402307</v>
+        <v>-0.608512662289843</v>
       </c>
       <c r="H13" t="n">
-        <v>38.0715569054714</v>
+        <v>6.747662536204578</v>
       </c>
       <c r="I13" t="n">
         <v>-0.5275454936918695</v>
@@ -942,19 +942,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D14" t="n">
-        <v>117594.0380035607</v>
+        <v>117628.2773551512</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03809408522647903</v>
+        <v>-0.0347753637637116</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1639901036906792</v>
+        <v>0.1420333826673406</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.486265866837693</v>
+        <v>-0.9722330977683984</v>
       </c>
       <c r="H14" t="n">
-        <v>27.73476613683938</v>
+        <v>9.295778709938382</v>
       </c>
       <c r="I14" t="n">
         <v>-0.5401551069924515</v>
@@ -1104,19 +1104,19 @@
         <v>0.02465753424657534</v>
       </c>
       <c r="D18" t="n">
-        <v>117621.4724284663</v>
+        <v>117636.65421703</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03354465718128177</v>
+        <v>-0.032172946883964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1470896864902883</v>
+        <v>0.1381679263345998</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.013508537254856</v>
+        <v>-1.357197505184592</v>
       </c>
       <c r="H18" t="n">
-        <v>21.55246248015699</v>
+        <v>13.87796758682234</v>
       </c>
       <c r="I18" t="n">
         <v>-0.4724317204825109</v>
@@ -1188,19 +1188,19 @@
         <v>0.06301369863013699</v>
       </c>
       <c r="D20" t="n">
-        <v>117790.0370705041</v>
+        <v>117705.7137032551</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02664062338492684</v>
+        <v>-0.03076868531363822</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1409116006936998</v>
+        <v>0.1530874067019525</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1442200498573693</v>
+        <v>-0.5956323420837806</v>
       </c>
       <c r="H20" t="n">
-        <v>4.07576930111403</v>
+        <v>6.325539329327718</v>
       </c>
       <c r="I20" t="n">
         <v>-0.2690455451269347</v>

--- a/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.76804581872796</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.6296680801490944</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2536532154868955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.008877041747368367</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.577355436810102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDQMOMENT_20250730.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>14.18296960958322</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.649233777652959</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4583536105638675</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3873467178024197</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.782278801375452</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
